--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Thbs2-Notch3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Thbs2-Notch3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.9785166666666667</v>
+        <v>1.249563</v>
       </c>
       <c r="H2">
-        <v>2.93555</v>
+        <v>3.748689</v>
       </c>
       <c r="I2">
-        <v>0.005150408549089734</v>
+        <v>0.006879661005457268</v>
       </c>
       <c r="J2">
-        <v>0.005259892016175552</v>
+        <v>0.006920555383629864</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.819868333333334</v>
+        <v>2.804921333333333</v>
       </c>
       <c r="N2">
-        <v>26.459605</v>
+        <v>8.414764</v>
       </c>
       <c r="O2">
-        <v>0.06009452733181694</v>
+        <v>0.05565711987895654</v>
       </c>
       <c r="P2">
-        <v>0.08592393201160566</v>
+        <v>0.07709290030149896</v>
       </c>
       <c r="Q2">
-        <v>8.630388161972222</v>
+        <v>3.504925916044</v>
       </c>
       <c r="R2">
-        <v>77.67349345775</v>
+        <v>31.544333244396</v>
       </c>
       <c r="S2">
-        <v>0.0003095113673232967</v>
+        <v>0.0003829021173073179</v>
       </c>
       <c r="T2">
-        <v>0.0004519506039862555</v>
+        <v>0.000533525686221179</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.9785166666666667</v>
+        <v>1.249563</v>
       </c>
       <c r="H3">
-        <v>2.93555</v>
+        <v>3.748689</v>
       </c>
       <c r="I3">
-        <v>0.005150408549089734</v>
+        <v>0.006879661005457268</v>
       </c>
       <c r="J3">
-        <v>0.005259892016175552</v>
+        <v>0.006920555383629864</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>16.457622</v>
       </c>
       <c r="O3">
-        <v>0.03737822295894862</v>
+        <v>0.1088543707912132</v>
       </c>
       <c r="P3">
-        <v>0.05344386636915803</v>
+        <v>0.1507785378230163</v>
       </c>
       <c r="Q3">
-        <v>5.368019140233334</v>
+        <v>6.854945173062</v>
       </c>
       <c r="R3">
-        <v>48.31217226210001</v>
+        <v>61.694506557558</v>
       </c>
       <c r="S3">
-        <v>0.0001925131190775511</v>
+        <v>0.0007488811700058964</v>
       </c>
       <c r="T3">
-        <v>0.0002811089660286874</v>
+        <v>0.001043471221666914</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.9785166666666667</v>
+        <v>1.249563</v>
       </c>
       <c r="H4">
-        <v>2.93555</v>
+        <v>3.748689</v>
       </c>
       <c r="I4">
-        <v>0.005150408549089734</v>
+        <v>0.006879661005457268</v>
       </c>
       <c r="J4">
-        <v>0.005259892016175552</v>
+        <v>0.006920555383629864</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.06916233333333333</v>
+        <v>42.038395</v>
       </c>
       <c r="N4">
-        <v>0.207487</v>
+        <v>84.07679</v>
       </c>
       <c r="O4">
-        <v>0.0004712403375823902</v>
+        <v>0.8341538717071308</v>
       </c>
       <c r="P4">
-        <v>0.0006737855263255827</v>
+        <v>0.7702799019841869</v>
       </c>
       <c r="Q4">
-        <v>0.06767649587222221</v>
+        <v>52.529622971385</v>
       </c>
       <c r="R4">
-        <v>0.60908846285</v>
+        <v>315.17773782831</v>
       </c>
       <c r="S4">
-        <v>2.427080263360275E-06</v>
+        <v>0.005738695863734752</v>
       </c>
       <c r="T4">
-        <v>3.544039110534574E-06</v>
+        <v>0.005330764722578549</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,61 +726,61 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.9785166666666667</v>
+        <v>1.249563</v>
       </c>
       <c r="H5">
-        <v>2.93555</v>
+        <v>3.748689</v>
       </c>
       <c r="I5">
-        <v>0.005150408549089734</v>
+        <v>0.006879661005457268</v>
       </c>
       <c r="J5">
-        <v>0.005259892016175552</v>
+        <v>0.006920555383629864</v>
       </c>
       <c r="K5">
         <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>132.35754</v>
+        <v>0.067261</v>
       </c>
       <c r="N5">
-        <v>264.71508</v>
+        <v>0.201783</v>
       </c>
       <c r="O5">
-        <v>0.9018234178214739</v>
+        <v>0.001334637622699281</v>
       </c>
       <c r="P5">
-        <v>0.8596258536877913</v>
+        <v>0.001848659891297886</v>
       </c>
       <c r="Q5">
-        <v>129.514058849</v>
+        <v>0.084046856943</v>
       </c>
       <c r="R5">
-        <v>777.084353094</v>
+        <v>0.7564217124869999</v>
       </c>
       <c r="S5">
-        <v>0.004644759040917042</v>
+        <v>9.18185440930043E-06</v>
       </c>
       <c r="T5">
-        <v>0.004521539164710506</v>
+        <v>1.279375316322218E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.9785166666666667</v>
+        <v>177.042969</v>
       </c>
       <c r="H6">
-        <v>2.93555</v>
+        <v>531.128907</v>
       </c>
       <c r="I6">
-        <v>0.005150408549089734</v>
+        <v>0.9747372562405255</v>
       </c>
       <c r="J6">
-        <v>0.005259892016175552</v>
+        <v>0.9805313315509224</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.03413666666666666</v>
+        <v>2.804921333333333</v>
       </c>
       <c r="N6">
-        <v>0.10241</v>
+        <v>8.414764</v>
       </c>
       <c r="O6">
-        <v>0.0002325915501781441</v>
+        <v>0.05565711987895654</v>
       </c>
       <c r="P6">
-        <v>0.000332562405119371</v>
+        <v>0.07709290030149896</v>
       </c>
       <c r="Q6">
-        <v>0.03340329727777777</v>
+        <v>496.591600664772</v>
       </c>
       <c r="R6">
-        <v>0.3006296755</v>
+        <v>4469.324405982949</v>
       </c>
       <c r="S6">
-        <v>1.197941508483547E-06</v>
+        <v>0.05425106832106411</v>
       </c>
       <c r="T6">
-        <v>1.749242339567519E-06</v>
+        <v>0.07559200418575128</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,13 +853,13 @@
         <v>177.042969</v>
       </c>
       <c r="H7">
-        <v>531.1289069999999</v>
+        <v>531.128907</v>
       </c>
       <c r="I7">
-        <v>0.9318631477172884</v>
+        <v>0.9747372562405255</v>
       </c>
       <c r="J7">
-        <v>0.9516719856549357</v>
+        <v>0.9805313315509224</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.819868333333334</v>
+        <v>5.485874</v>
       </c>
       <c r="N7">
-        <v>26.459605</v>
+        <v>16.457622</v>
       </c>
       <c r="O7">
-        <v>0.06009452733181694</v>
+        <v>0.1088543707912132</v>
       </c>
       <c r="P7">
-        <v>0.08592393201160566</v>
+        <v>0.1507785378230163</v>
       </c>
       <c r="Q7">
-        <v>1561.495675922415</v>
+        <v>971.235420519906</v>
       </c>
       <c r="R7">
-        <v>14053.46108330173</v>
+        <v>8741.118784679154</v>
       </c>
       <c r="S7">
-        <v>0.05599987540000955</v>
+        <v>0.106104410714816</v>
       </c>
       <c r="T7">
-        <v>0.08177139899276445</v>
+        <v>0.1478430804609033</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,43 +915,43 @@
         <v>177.042969</v>
       </c>
       <c r="H8">
-        <v>531.1289069999999</v>
+        <v>531.128907</v>
       </c>
       <c r="I8">
-        <v>0.9318631477172884</v>
+        <v>0.9747372562405255</v>
       </c>
       <c r="J8">
-        <v>0.9516719856549357</v>
+        <v>0.9805313315509224</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.485874</v>
+        <v>42.038395</v>
       </c>
       <c r="N8">
-        <v>16.457622</v>
+        <v>84.07679</v>
       </c>
       <c r="O8">
-        <v>0.03737822295894862</v>
+        <v>0.8341538717071308</v>
       </c>
       <c r="P8">
-        <v>0.05344386636915803</v>
+        <v>0.7702799019841869</v>
       </c>
       <c r="Q8">
-        <v>971.2354205199058</v>
+        <v>7442.602262794755</v>
       </c>
       <c r="R8">
-        <v>8741.118784679153</v>
+        <v>44655.61357676853</v>
       </c>
       <c r="S8">
-        <v>0.03483138850260448</v>
+        <v>0.8130808561902201</v>
       </c>
       <c r="T8">
-        <v>0.05086103042861366</v>
+        <v>0.7552835779594689</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,48 +977,48 @@
         <v>177.042969</v>
       </c>
       <c r="H9">
-        <v>531.1289069999999</v>
+        <v>531.128907</v>
       </c>
       <c r="I9">
-        <v>0.9318631477172884</v>
+        <v>0.9747372562405255</v>
       </c>
       <c r="J9">
-        <v>0.9516719856549357</v>
+        <v>0.9805313315509224</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.06916233333333333</v>
+        <v>0.067261</v>
       </c>
       <c r="N9">
-        <v>0.207487</v>
+        <v>0.201783</v>
       </c>
       <c r="O9">
-        <v>0.0004712403375823902</v>
+        <v>0.001334637622699281</v>
       </c>
       <c r="P9">
-        <v>0.0006737855263255827</v>
+        <v>0.001848659891297886</v>
       </c>
       <c r="Q9">
-        <v>12.244704836301</v>
+        <v>11.908087137909</v>
       </c>
       <c r="R9">
-        <v>110.202343526709</v>
+        <v>107.172784241181</v>
       </c>
       <c r="S9">
-        <v>0.0004391315043108837</v>
+        <v>0.001300921014425275</v>
       </c>
       <c r="T9">
-        <v>0.0006412228097438233</v>
+        <v>0.0018126689447991</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,117 +1027,117 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>177.042969</v>
+        <v>0.07049699999999999</v>
       </c>
       <c r="H10">
-        <v>531.1289069999999</v>
+        <v>0.211491</v>
       </c>
       <c r="I10">
-        <v>0.9318631477172884</v>
+        <v>0.000388132060489724</v>
       </c>
       <c r="J10">
-        <v>0.9516719856549357</v>
+        <v>0.0003904392118522671</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>132.35754</v>
+        <v>2.804921333333333</v>
       </c>
       <c r="N10">
-        <v>264.71508</v>
+        <v>8.414764</v>
       </c>
       <c r="O10">
-        <v>0.9018234178214739</v>
+        <v>0.05565711987895654</v>
       </c>
       <c r="P10">
-        <v>0.8596258536877913</v>
+        <v>0.07709290030149896</v>
       </c>
       <c r="Q10">
-        <v>23432.97185113626</v>
+        <v>0.197738539236</v>
       </c>
       <c r="R10">
-        <v>140597.8311068175</v>
+        <v>1.779646853124</v>
       </c>
       <c r="S10">
-        <v>0.840376008816282</v>
+        <v>2.160231261954298E-05</v>
       </c>
       <c r="T10">
-        <v>0.8180818430993796</v>
+        <v>3.010009123312266E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>177.042969</v>
+        <v>0.07049699999999999</v>
       </c>
       <c r="H11">
-        <v>531.1289069999999</v>
+        <v>0.211491</v>
       </c>
       <c r="I11">
-        <v>0.9318631477172884</v>
+        <v>0.000388132060489724</v>
       </c>
       <c r="J11">
-        <v>0.9516719856549357</v>
+        <v>0.0003904392118522671</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.03413666666666666</v>
+        <v>5.485874</v>
       </c>
       <c r="N11">
-        <v>0.10241</v>
+        <v>16.457622</v>
       </c>
       <c r="O11">
-        <v>0.0002325915501781441</v>
+        <v>0.1088543707912132</v>
       </c>
       <c r="P11">
-        <v>0.000332562405119371</v>
+        <v>0.1507785378230163</v>
       </c>
       <c r="Q11">
-        <v>6.043656818429998</v>
+        <v>0.3867376593779999</v>
       </c>
       <c r="R11">
-        <v>54.39291136586998</v>
+        <v>3.480638934402</v>
       </c>
       <c r="S11">
-        <v>0.000216743494081449</v>
+        <v>4.224987122850602E-05</v>
       </c>
       <c r="T11">
-        <v>0.0003164903244341329</v>
+        <v>5.886985347185573E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,7 +1151,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1160,46 +1160,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.06082233333333334</v>
+        <v>0.07049699999999999</v>
       </c>
       <c r="H12">
-        <v>0.182467</v>
+        <v>0.211491</v>
       </c>
       <c r="I12">
-        <v>0.0003201374858976194</v>
+        <v>0.000388132060489724</v>
       </c>
       <c r="J12">
-        <v>0.0003269427250482889</v>
+        <v>0.0003904392118522671</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.819868333333334</v>
+        <v>42.038395</v>
       </c>
       <c r="N12">
-        <v>26.459605</v>
+        <v>84.07679</v>
       </c>
       <c r="O12">
-        <v>0.06009452733181694</v>
+        <v>0.8341538717071308</v>
       </c>
       <c r="P12">
-        <v>0.08592393201160566</v>
+        <v>0.7702799019841869</v>
       </c>
       <c r="Q12">
-        <v>0.5364449717261112</v>
+        <v>2.963580732315</v>
       </c>
       <c r="R12">
-        <v>4.828004745535001</v>
+        <v>17.78148439389</v>
       </c>
       <c r="S12">
-        <v>1.923851089621365E-05</v>
+        <v>0.0003237618609911696</v>
       </c>
       <c r="T12">
-        <v>2.809220447873826E-05</v>
+        <v>0.0003007474778363476</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1222,51 +1222,51 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.06082233333333334</v>
+        <v>0.07049699999999999</v>
       </c>
       <c r="H13">
-        <v>0.182467</v>
+        <v>0.211491</v>
       </c>
       <c r="I13">
-        <v>0.0003201374858976194</v>
+        <v>0.000388132060489724</v>
       </c>
       <c r="J13">
-        <v>0.0003269427250482889</v>
+        <v>0.0003904392118522671</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>5.485874</v>
+        <v>0.067261</v>
       </c>
       <c r="N13">
-        <v>16.457622</v>
+        <v>0.201783</v>
       </c>
       <c r="O13">
-        <v>0.03737822295894862</v>
+        <v>0.001334637622699281</v>
       </c>
       <c r="P13">
-        <v>0.05344386636915803</v>
+        <v>0.001848659891297886</v>
       </c>
       <c r="Q13">
-        <v>0.3336636570526667</v>
+        <v>0.004741698716999999</v>
       </c>
       <c r="R13">
-        <v>3.002972913474</v>
+        <v>0.042675288453</v>
       </c>
       <c r="S13">
-        <v>1.196617032539849E-05</v>
+        <v>5.180156505053786E-07</v>
       </c>
       <c r="T13">
-        <v>1.747308330784913E-05</v>
+        <v>7.217893109412444E-07</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,60 +1275,60 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>2</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.06082233333333334</v>
+        <v>3.2198455</v>
       </c>
       <c r="H14">
-        <v>0.182467</v>
+        <v>6.439691</v>
       </c>
       <c r="I14">
-        <v>0.0003201374858976194</v>
+        <v>0.01772735390688349</v>
       </c>
       <c r="J14">
-        <v>0.0003269427250482889</v>
+        <v>0.01188848640657115</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.06916233333333333</v>
+        <v>2.804921333333333</v>
       </c>
       <c r="N14">
-        <v>0.207487</v>
+        <v>8.414764</v>
       </c>
       <c r="O14">
-        <v>0.0004712403375823902</v>
+        <v>0.05565711987895654</v>
       </c>
       <c r="P14">
-        <v>0.0006737855263255827</v>
+        <v>0.07709290030149896</v>
       </c>
       <c r="Q14">
-        <v>0.004206614492111111</v>
+        <v>9.031413332987333</v>
       </c>
       <c r="R14">
-        <v>0.037859530429</v>
+        <v>54.188479997924</v>
       </c>
       <c r="S14">
-        <v>1.508616969271718E-07</v>
+        <v>0.0009866534615321032</v>
       </c>
       <c r="T14">
-        <v>2.202892760749816E-07</v>
+        <v>0.000916517897277515</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,60 +1337,60 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>2</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.06082233333333334</v>
+        <v>3.2198455</v>
       </c>
       <c r="H15">
-        <v>0.182467</v>
+        <v>6.439691</v>
       </c>
       <c r="I15">
-        <v>0.0003201374858976194</v>
+        <v>0.01772735390688349</v>
       </c>
       <c r="J15">
-        <v>0.0003269427250482889</v>
+        <v>0.01188848640657115</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>132.35754</v>
+        <v>5.485874</v>
       </c>
       <c r="N15">
-        <v>264.71508</v>
+        <v>16.457622</v>
       </c>
       <c r="O15">
-        <v>0.9018234178214739</v>
+        <v>0.1088543707912132</v>
       </c>
       <c r="P15">
-        <v>0.8596258536877913</v>
+        <v>0.1507785378230163</v>
       </c>
       <c r="Q15">
-        <v>8.05029441706</v>
+        <v>17.663666712467</v>
       </c>
       <c r="R15">
-        <v>48.30176650236</v>
+        <v>105.982000274802</v>
       </c>
       <c r="S15">
-        <v>0.0002887074817049651</v>
+        <v>0.001929699955326958</v>
       </c>
       <c r="T15">
-        <v>0.0002810484191266482</v>
+        <v>0.001792528597311603</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,55 +1399,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16">
         <v>2</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.06082233333333334</v>
+        <v>3.2198455</v>
       </c>
       <c r="H16">
-        <v>0.182467</v>
+        <v>6.439691</v>
       </c>
       <c r="I16">
-        <v>0.0003201374858976194</v>
+        <v>0.01772735390688349</v>
       </c>
       <c r="J16">
-        <v>0.0003269427250482889</v>
+        <v>0.01188848640657115</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.03413666666666666</v>
+        <v>42.038395</v>
       </c>
       <c r="N16">
-        <v>0.10241</v>
+        <v>84.07679</v>
       </c>
       <c r="O16">
-        <v>0.0002325915501781441</v>
+        <v>0.8341538717071308</v>
       </c>
       <c r="P16">
-        <v>0.000332562405119371</v>
+        <v>0.7702799019841869</v>
       </c>
       <c r="Q16">
-        <v>0.002076271718888889</v>
+        <v>135.3571369679725</v>
       </c>
       <c r="R16">
-        <v>0.01868644547</v>
+        <v>541.42854787189</v>
       </c>
       <c r="S16">
-        <v>7.446127411506103E-08</v>
+        <v>0.0147873408965494</v>
       </c>
       <c r="T16">
-        <v>1.087288589783402E-07</v>
+        <v>0.009157462143993962</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,7 +1461,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -1470,51 +1470,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>11.8636825</v>
+        <v>3.2198455</v>
       </c>
       <c r="H17">
-        <v>23.727365</v>
+        <v>6.439691</v>
       </c>
       <c r="I17">
-        <v>0.06244432399892995</v>
+        <v>0.01772735390688349</v>
       </c>
       <c r="J17">
-        <v>0.04251447862526041</v>
+        <v>0.01188848640657115</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>8.819868333333334</v>
+        <v>0.067261</v>
       </c>
       <c r="N17">
-        <v>26.459605</v>
+        <v>0.201783</v>
       </c>
       <c r="O17">
-        <v>0.06009452733181694</v>
+        <v>0.001334637622699281</v>
       </c>
       <c r="P17">
-        <v>0.08592393201160566</v>
+        <v>0.001848659891297886</v>
       </c>
       <c r="Q17">
-        <v>104.6361175984708</v>
+        <v>0.2165700281755</v>
       </c>
       <c r="R17">
-        <v>627.816705590825</v>
+        <v>1.299420169053</v>
       </c>
       <c r="S17">
-        <v>0.003752562135270528</v>
+        <v>2.365959347503179E-05</v>
       </c>
       <c r="T17">
-        <v>0.003653011170905738</v>
+        <v>2.197776798806821E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,25 +1523,25 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18">
         <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>11.8636825</v>
+        <v>0.048604</v>
       </c>
       <c r="H18">
-        <v>23.727365</v>
+        <v>0.145812</v>
       </c>
       <c r="I18">
-        <v>0.06244432399892995</v>
+        <v>0.0002675967866440068</v>
       </c>
       <c r="J18">
-        <v>0.04251447862526041</v>
+        <v>0.0002691874470242364</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,33 +1550,33 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>5.485874</v>
+        <v>2.804921333333333</v>
       </c>
       <c r="N18">
-        <v>16.457622</v>
+        <v>8.414764</v>
       </c>
       <c r="O18">
-        <v>0.03737822295894862</v>
+        <v>0.05565711987895654</v>
       </c>
       <c r="P18">
-        <v>0.05344386636915803</v>
+        <v>0.07709290030149896</v>
       </c>
       <c r="Q18">
-        <v>65.082667371005</v>
+        <v>0.1363303964853333</v>
       </c>
       <c r="R18">
-        <v>390.49600422603</v>
+        <v>1.226973568368</v>
       </c>
       <c r="S18">
-        <v>0.002334057864952829</v>
+        <v>1.489366643346904E-05</v>
       </c>
       <c r="T18">
-        <v>0.002272138114402843</v>
+        <v>2.075244101585449E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1585,60 +1585,60 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19">
         <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>11.8636825</v>
+        <v>0.048604</v>
       </c>
       <c r="H19">
-        <v>23.727365</v>
+        <v>0.145812</v>
       </c>
       <c r="I19">
-        <v>0.06244432399892995</v>
+        <v>0.0002675967866440068</v>
       </c>
       <c r="J19">
-        <v>0.04251447862526041</v>
+        <v>0.0002691874470242364</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.06916233333333333</v>
+        <v>5.485874</v>
       </c>
       <c r="N19">
-        <v>0.207487</v>
+        <v>16.457622</v>
       </c>
       <c r="O19">
-        <v>0.0004712403375823902</v>
+        <v>0.1088543707912132</v>
       </c>
       <c r="P19">
-        <v>0.0006737855263255827</v>
+        <v>0.1507785378230163</v>
       </c>
       <c r="Q19">
-        <v>0.8205199636258332</v>
+        <v>0.266635419896</v>
       </c>
       <c r="R19">
-        <v>4.923119781754999</v>
+        <v>2.399718779064</v>
       </c>
       <c r="S19">
-        <v>2.94262843213599E-05</v>
+        <v>2.912907983588389E-05</v>
       </c>
       <c r="T19">
-        <v>2.864564035697883E-05</v>
+        <v>4.058768966262503E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1653,19 +1653,19 @@
         <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>11.8636825</v>
+        <v>0.048604</v>
       </c>
       <c r="H20">
-        <v>23.727365</v>
+        <v>0.145812</v>
       </c>
       <c r="I20">
-        <v>0.06244432399892995</v>
+        <v>0.0002675967866440068</v>
       </c>
       <c r="J20">
-        <v>0.04251447862526041</v>
+        <v>0.0002691874470242364</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,33 +1674,33 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>132.35754</v>
+        <v>42.038395</v>
       </c>
       <c r="N20">
-        <v>264.71508</v>
+        <v>84.07679</v>
       </c>
       <c r="O20">
-        <v>0.9018234178214739</v>
+        <v>0.8341538717071308</v>
       </c>
       <c r="P20">
-        <v>0.8596258536877913</v>
+        <v>0.7702799019841869</v>
       </c>
       <c r="Q20">
-        <v>1570.24783104105</v>
+        <v>2.04323415058</v>
       </c>
       <c r="R20">
-        <v>6280.9913241642</v>
+        <v>12.25940490348</v>
       </c>
       <c r="S20">
-        <v>0.0563137536922665</v>
+        <v>0.0002232168956354853</v>
       </c>
       <c r="T20">
-        <v>0.03654654498233084</v>
+        <v>0.0002073496803092023</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1715,359 +1715,49 @@
         <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>11.8636825</v>
+        <v>0.048604</v>
       </c>
       <c r="H21">
-        <v>23.727365</v>
+        <v>0.145812</v>
       </c>
       <c r="I21">
-        <v>0.06244432399892995</v>
+        <v>0.0002675967866440068</v>
       </c>
       <c r="J21">
-        <v>0.04251447862526041</v>
+        <v>0.0002691874470242364</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.03413666666666666</v>
+        <v>0.067261</v>
       </c>
       <c r="N21">
-        <v>0.10241</v>
+        <v>0.201783</v>
       </c>
       <c r="O21">
-        <v>0.0002325915501781441</v>
+        <v>0.001334637622699281</v>
       </c>
       <c r="P21">
-        <v>0.000332562405119371</v>
+        <v>0.001848659891297886</v>
       </c>
       <c r="Q21">
-        <v>0.4049865749416666</v>
+        <v>0.003269153644</v>
       </c>
       <c r="R21">
-        <v>2.429919449649999</v>
+        <v>0.029422382796</v>
       </c>
       <c r="S21">
-        <v>1.45240221187374E-05</v>
+        <v>3.571447391685238E-07</v>
       </c>
       <c r="T21">
-        <v>1.413871726401269E-05</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G22">
-        <v>0.042174</v>
-      </c>
-      <c r="H22">
-        <v>0.126522</v>
-      </c>
-      <c r="I22">
-        <v>0.00022198224879424</v>
-      </c>
-      <c r="J22">
-        <v>0.000226700978580015</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>8.819868333333334</v>
-      </c>
-      <c r="N22">
-        <v>26.459605</v>
-      </c>
-      <c r="O22">
-        <v>0.06009452733181694</v>
-      </c>
-      <c r="P22">
-        <v>0.08592393201160566</v>
-      </c>
-      <c r="Q22">
-        <v>0.37196912709</v>
-      </c>
-      <c r="R22">
-        <v>3.34772214381</v>
-      </c>
-      <c r="S22">
-        <v>1.333991831734364E-05</v>
-      </c>
-      <c r="T22">
-        <v>1.947903947047368E-05</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G23">
-        <v>0.042174</v>
-      </c>
-      <c r="H23">
-        <v>0.126522</v>
-      </c>
-      <c r="I23">
-        <v>0.00022198224879424</v>
-      </c>
-      <c r="J23">
-        <v>0.000226700978580015</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>5.485874</v>
-      </c>
-      <c r="N23">
-        <v>16.457622</v>
-      </c>
-      <c r="O23">
-        <v>0.03737822295894862</v>
-      </c>
-      <c r="P23">
-        <v>0.05344386636915803</v>
-      </c>
-      <c r="Q23">
-        <v>0.231361250076</v>
-      </c>
-      <c r="R23">
-        <v>2.082251250684</v>
-      </c>
-      <c r="S23">
-        <v>8.297301988359907E-06</v>
-      </c>
-      <c r="T23">
-        <v>1.211577680498768E-05</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G24">
-        <v>0.042174</v>
-      </c>
-      <c r="H24">
-        <v>0.126522</v>
-      </c>
-      <c r="I24">
-        <v>0.00022198224879424</v>
-      </c>
-      <c r="J24">
-        <v>0.000226700978580015</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M24">
-        <v>0.06916233333333333</v>
-      </c>
-      <c r="N24">
-        <v>0.207487</v>
-      </c>
-      <c r="O24">
-        <v>0.0004712403375823902</v>
-      </c>
-      <c r="P24">
-        <v>0.0006737855263255827</v>
-      </c>
-      <c r="Q24">
-        <v>0.002916852246</v>
-      </c>
-      <c r="R24">
-        <v>0.026251670214</v>
-      </c>
-      <c r="S24">
-        <v>1.046069898590958E-07</v>
-      </c>
-      <c r="T24">
-        <v>1.527478381710601E-07</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G25">
-        <v>0.042174</v>
-      </c>
-      <c r="H25">
-        <v>0.126522</v>
-      </c>
-      <c r="I25">
-        <v>0.00022198224879424</v>
-      </c>
-      <c r="J25">
-        <v>0.000226700978580015</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>132.35754</v>
-      </c>
-      <c r="N25">
-        <v>264.71508</v>
-      </c>
-      <c r="O25">
-        <v>0.9018234178214739</v>
-      </c>
-      <c r="P25">
-        <v>0.8596258536877913</v>
-      </c>
-      <c r="Q25">
-        <v>5.582046891959999</v>
-      </c>
-      <c r="R25">
-        <v>33.49228135176</v>
-      </c>
-      <c r="S25">
-        <v>0.0002001887903033183</v>
-      </c>
-      <c r="T25">
-        <v>0.0001948780222437031</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G26">
-        <v>0.042174</v>
-      </c>
-      <c r="H26">
-        <v>0.126522</v>
-      </c>
-      <c r="I26">
-        <v>0.00022198224879424</v>
-      </c>
-      <c r="J26">
-        <v>0.000226700978580015</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M26">
-        <v>0.03413666666666666</v>
-      </c>
-      <c r="N26">
-        <v>0.10241</v>
-      </c>
-      <c r="O26">
-        <v>0.0002325915501781441</v>
-      </c>
-      <c r="P26">
-        <v>0.000332562405119371</v>
-      </c>
-      <c r="Q26">
-        <v>0.00143967978</v>
-      </c>
-      <c r="R26">
-        <v>0.01295711802</v>
-      </c>
-      <c r="S26">
-        <v>5.163119535908274E-08</v>
-      </c>
-      <c r="T26">
-        <v>7.53922226794848E-08</v>
+        <v>4.976360365545803E-07</v>
       </c>
     </row>
   </sheetData>
